--- a/tools/importer/reports/import-homepage.report.xlsx
+++ b/tools/importer/reports/import-homepage.report.xlsx
@@ -52,7 +52,7 @@
     <t>homepage</t>
   </si>
   <si>
-    <t>2026-02-12T08:21:42.428Z</t>
+    <t>2026-02-12T09:55:29.775Z</t>
   </si>
   <si>
     <t>Wireless Broadband for First Responders and Public Safety | FirstNet</t>
